--- a/data/trans_orig/dukeCONF-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>29,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,05</t>
+          <t>32,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>27,88</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,71</t>
+          <t>31,69</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>28,86</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>31,88</t>
+          <t>31,91</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,13; 30,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,62; 32,45</t>
+          <t>31,67; 32,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,92; 28,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,36; 32,03</t>
+          <t>31,27; 32,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,31; 29,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,61; 32,14</t>
+          <t>31,62; 32,2</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,58</t>
+          <t>30,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>30,63</t>
+          <t>30,64</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,08; 31,04</t>
+          <t>30,08; 31,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,25; 31,05</t>
+          <t>30,25; 31,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,29; 30,91</t>
+          <t>30,29; 30,92</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>31,78</t>
+          <t>31,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,35</t>
+          <t>31,38</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>31,55</t>
+          <t>31,59</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,19; 32,27</t>
+          <t>31,24; 32,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,87; 31,79</t>
+          <t>30,9; 31,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,17; 31,91</t>
+          <t>31,21; 31,95</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,65</t>
+          <t>31,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,46</t>
+          <t>32,53</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,4</t>
+          <t>30,51</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,23</t>
+          <t>32,69</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,02</t>
+          <t>30,9</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>32,33</t>
+          <t>32,63</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,17; 31,07</t>
+          <t>30,73; 31,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,75; 33,0</t>
+          <t>31,85; 33,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,84; 29,87</t>
+          <t>29,93; 31,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,55; 32,7</t>
+          <t>32,04; 33,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,69; 30,37</t>
+          <t>30,49; 31,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,89; 32,7</t>
+          <t>32,13; 33,23</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28,61</t>
+          <t>28,6</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>28,63</t>
+          <t>28,62</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,11; 29,16</t>
+          <t>28,12; 29,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,21; 29,04</t>
+          <t>28,2; 29,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,3; 28,94</t>
+          <t>28,29; 28,93</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,89</t>
+          <t>31,92</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>31,9</t>
+          <t>31,91</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,34; 32,37</t>
+          <t>31,38; 32,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,44; 32,33</t>
+          <t>31,43; 32,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>31,5; 32,22</t>
+          <t>31,52; 32,24</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,89</t>
+          <t>30,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,42; 31,31</t>
+          <t>30,34; 31,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,33; 31,05</t>
+          <t>30,34; 31,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,55; 31,1</t>
+          <t>30,51; 31,08</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>28,75</t>
+          <t>30,1</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>27,68</t>
+          <t>27,63</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>28,21</t>
+          <t>29,02</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>28,16; 30,02</t>
+          <t>28,21; 32,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,32; 28,05</t>
+          <t>27,28; 28,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>27,86; 28,9</t>
+          <t>27,87; 31,35</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>30,57</t>
+          <t>30,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>30,25</t>
+          <t>30,44</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>30,4</t>
+          <t>30,69</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>30,37; 30,82</t>
+          <t>30,57; 31,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>30,09; 30,41</t>
+          <t>30,26; 30,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>30,26; 30,54</t>
+          <t>30,47; 31,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/dukeCONF-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,43; 28,04</t>
+          <t>26,39; 27,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,13; 30,41</t>
+          <t>29,15; 30,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,91; 30,16</t>
+          <t>28,9; 30,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,67; 32,53</t>
+          <t>31,65; 32,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,12; 26,8</t>
+          <t>25,15; 26,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,92; 28,63</t>
+          <t>27,06; 28,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,65; 29,91</t>
+          <t>28,67; 29,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,27; 32,02</t>
+          <t>31,19; 32,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,03; 27,19</t>
+          <t>26,11; 27,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,31; 29,4</t>
+          <t>28,28; 29,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,98; 29,9</t>
+          <t>28,98; 29,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,62; 32,2</t>
+          <t>31,61; 32,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,46; 30,54</t>
+          <t>29,41; 30,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,08; 31,12</t>
+          <t>30,15; 31,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,85; 29,62</t>
+          <t>28,84; 29,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,08; 31,08</t>
+          <t>30,09; 31,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,18; 29,33</t>
+          <t>28,19; 29,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,93; 30,93</t>
+          <t>29,92; 30,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,88; 29,64</t>
+          <t>28,89; 29,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,25; 31,04</t>
+          <t>30,27; 31,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,97; 29,73</t>
+          <t>29,01; 29,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,21; 30,89</t>
+          <t>30,19; 30,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,98; 29,52</t>
+          <t>28,98; 29,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,29; 30,92</t>
+          <t>30,3; 30,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,7; 31,77</t>
+          <t>30,71; 31,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,0; 32,0</t>
+          <t>31,03; 32,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,65; 30,65</t>
+          <t>29,61; 30,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,24; 32,32</t>
+          <t>31,2; 32,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,58; 31,65</t>
+          <t>30,58; 31,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,12; 31,08</t>
+          <t>30,03; 31,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,31; 30,26</t>
+          <t>29,31; 30,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,9; 31,81</t>
+          <t>30,88; 31,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,87; 31,56</t>
+          <t>30,84; 31,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,71; 31,39</t>
+          <t>30,7; 31,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,59; 30,3</t>
+          <t>29,61; 30,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,21; 31,95</t>
+          <t>31,23; 31,92</t>
         </is>
       </c>
     </row>
@@ -1144,32 +1144,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,65; 30,63</t>
+          <t>29,62; 30,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,73; 31,76</t>
+          <t>30,73; 31,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,82; 32,03</t>
+          <t>30,8; 32,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,85; 33,05</t>
+          <t>31,8; 33,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,18; 30,24</t>
+          <t>29,17; 30,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,93; 31,05</t>
+          <t>29,88; 31,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,04; 33,62</t>
+          <t>31,94; 33,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,57; 30,29</t>
+          <t>29,59; 30,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,49; 31,28</t>
+          <t>30,48; 31,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,88; 31,78</t>
+          <t>30,94; 31,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,13; 33,23</t>
+          <t>32,12; 33,34</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,21; 29,86</t>
+          <t>28,34; 29,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,71; 31,97</t>
+          <t>30,66; 31,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,45; 30,53</t>
+          <t>29,41; 30,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,12; 29,15</t>
+          <t>28,11; 29,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,62; 29,01</t>
+          <t>27,69; 29,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,22; 30,67</t>
+          <t>29,28; 30,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,62; 30,6</t>
+          <t>29,65; 30,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,2; 29,01</t>
+          <t>28,2; 28,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,22; 29,28</t>
+          <t>28,15; 29,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,16; 31,13</t>
+          <t>30,19; 31,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,73; 30,47</t>
+          <t>29,71; 30,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,29; 28,93</t>
+          <t>28,3; 28,95</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,63; 30,75</t>
+          <t>29,62; 30,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,25; 31,46</t>
+          <t>30,35; 31,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,82; 30,97</t>
+          <t>29,79; 30,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,49 +1444,49 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,4; 29,68</t>
+          <t>28,36; 29,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,69; 30,78</t>
+          <t>29,68; 30,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,8; 30,19</t>
+          <t>28,81; 30,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,43; 32,32</t>
+          <t>31,4; 32,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29,19; 30,07</t>
+          <t>29,18; 30,04</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,18; 31,02</t>
+          <t>30,14; 30,99</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>29,46; 30,36</t>
+          <t>29,53; 30,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>31,52; 32,24</t>
+          <t>31,58; 32,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,06; 31,88</t>
+          <t>31,12; 31,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,61; 31,43</t>
+          <t>30,61; 31,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,59; 29,38</t>
+          <t>28,62; 29,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,34; 31,31</t>
+          <t>30,38; 31,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,68; 31,55</t>
+          <t>30,73; 31,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,33; 31,01</t>
+          <t>30,32; 31,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,47; 29,2</t>
+          <t>28,46; 29,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,34; 31,05</t>
+          <t>30,36; 31,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31,03; 31,6</t>
+          <t>31,03; 31,59</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,59; 31,13</t>
+          <t>30,57; 31,15</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>28,64; 29,18</t>
+          <t>28,64; 29,17</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,51; 31,08</t>
+          <t>30,48; 31,07</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>29,16; 29,88</t>
+          <t>29,13; 29,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,05; 29,67</t>
+          <t>29,04; 29,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,89; 29,43</t>
+          <t>28,88; 29,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>28,21; 32,7</t>
+          <t>28,18; 32,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,4; 29,07</t>
+          <t>28,4; 29,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,11; 29,71</t>
+          <t>29,12; 29,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,59; 29,15</t>
+          <t>28,59; 29,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,28; 28,0</t>
+          <t>27,28; 27,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,89; 29,35</t>
+          <t>28,88; 29,36</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>29,17; 29,59</t>
+          <t>29,17; 29,6</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>28,82; 29,22</t>
+          <t>28,82; 29,2</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>27,87; 31,35</t>
+          <t>27,89; 31,31</t>
         </is>
       </c>
     </row>
@@ -1844,47 +1844,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>29,88; 30,24</t>
+          <t>29,87; 30,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>30,41; 30,77</t>
+          <t>30,39; 30,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>29,49; 29,82</t>
+          <t>29,51; 29,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>30,57; 31,86</t>
+          <t>30,57; 31,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>29,14; 29,53</t>
+          <t>29,14; 29,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,85; 30,2</t>
+          <t>29,85; 30,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>29,28; 29,59</t>
+          <t>29,28; 29,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>30,26; 30,8</t>
+          <t>30,23; 30,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>29,55; 29,82</t>
+          <t>29,57; 29,83</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>30,47; 31,22</t>
+          <t>30,47; 31,27</t>
         </is>
       </c>
     </row>
